--- a/biology/Botanique/Raubritter/Raubritter.xlsx
+++ b/biology/Botanique/Raubritter/Raubritter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Raubritter' est un cultivar de rosier obtenu en 1936 par le rosiériste allemand Kordes. Il est issu d'un croisement 'Daisy Hill' x 'Solarium'[1]. Son nom fait référence en allemand au « chevalier brigand », phénomène fréquent dans certaines régions du monde germanophone du XIVe siècle[2],[3].
+'Raubritter' est un cultivar de rosier obtenu en 1936 par le rosiériste allemand Kordes. Il est issu d'un croisement 'Daisy Hill' x 'Solarium'. Son nom fait référence en allemand au « chevalier brigand », phénomène fréquent dans certaines régions du monde germanophone du XIVe siècle,.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un buisson en forme de dôme[4] de 2 mètres de hauteur pour autant d'étalement offrant des fleurs de 4 à 5 centimètres de forme sphérique, comme des boutons de pivoine, et d'un rose délicat. Elles sont plus pâles au revers des pétales. La floraison en cascade[5] tout à fait spectaculaire de cette variété est très abondante et longue, mais unique en juin-juillet. Elle est peu parfumée.
-Les fleurs apparaissent sur des branches ayant au moins 5 centimètres de diamètre. Il ne faut donc pas le tailler trop court. Ses longues branches rampantes en font un rosier parfait pour servir de couvre-sol, pour couvrir un talus ou un muret. Il peut être aussi palissé comme un grimpant[1] et atteindre alors 3 mètres[6].
-Ce rosier est résistant aux hivers très rigoureux jusqu'à -20°[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un buisson en forme de dôme de 2 mètres de hauteur pour autant d'étalement offrant des fleurs de 4 à 5 centimètres de forme sphérique, comme des boutons de pivoine, et d'un rose délicat. Elles sont plus pâles au revers des pétales. La floraison en cascade tout à fait spectaculaire de cette variété est très abondante et longue, mais unique en juin-juillet. Elle est peu parfumée.
+Les fleurs apparaissent sur des branches ayant au moins 5 centimètres de diamètre. Il ne faut donc pas le tailler trop court. Ses longues branches rampantes en font un rosier parfait pour servir de couvre-sol, pour couvrir un talus ou un muret. Il peut être aussi palissé comme un grimpant et atteindre alors 3 mètres.
+Ce rosier est résistant aux hivers très rigoureux jusqu'à -20°.
 </t>
         </is>
       </c>
